--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="userShop" sheetId="8" r:id="rId3"/>
     <sheet name="shop" sheetId="3" r:id="rId4"/>
-    <sheet name="brand" sheetId="4" r:id="rId5"/>
+    <sheet name="brand" sheetId="14" r:id="rId5"/>
     <sheet name="catalog" sheetId="5" r:id="rId6"/>
     <sheet name="brandCatalog" sheetId="12" r:id="rId7"/>
     <sheet name="product" sheetId="9" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>ยังไม่จ่าย</t>
   </si>
   <si>
-    <t>กำลังรอดำเนินการ</t>
-  </si>
-  <si>
     <t>จ่ายเงินเรียบร้อย</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Acer</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Nike</t>
   </si>
   <si>
@@ -323,6 +317,24 @@
   </si>
   <si>
     <t>nike-air-max-1-ultra-flyknit.jpg</t>
+  </si>
+  <si>
+    <t>brandCatalogId</t>
+  </si>
+  <si>
+    <t>รอตรวจสอบ</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Hp</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -744,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,96 +775,96 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>10170</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>10150</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>10130</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>10200</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>10100</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -881,17 +892,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -901,10 +912,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,10 +929,43 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -931,12 +975,92 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -980,10 +1104,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -991,10 +1115,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1002,10 +1126,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1013,10 +1137,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1046,10 +1170,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,79 +1228,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>10120</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>10150</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>10110</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,35 +1325,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1253,22 +1373,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1278,20 +1398,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1314,31 +1434,36 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
@@ -1349,57 +1474,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>18590</v>
       </c>
       <c r="E2">
@@ -1411,21 +1527,18 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
+    </row>
+    <row r="3" spans="1:7" ht="153" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5">
         <v>23700</v>
       </c>
       <c r="E3">
@@ -1437,21 +1550,18 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
+    </row>
+    <row r="4" spans="1:7" ht="224.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="6">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5">
         <v>11990</v>
       </c>
       <c r="E4">
@@ -1463,142 +1573,121 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="278.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>680</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="226.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>650</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="243.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6">
+        <v>76</v>
+      </c>
+      <c r="D7" s="5">
         <v>500</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="330.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3500</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3399</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,7 +1700,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,12 +1720,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Acer Aspire F5-573G-53SJ</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Intel Core i5-7200U (2.50 GHz, 3 MB L3 Cache, up to 3.10 GHz)&lt;/li&gt;&lt;li&gt;NVIDIA GeForce GTX 950M (4GB GDDR5)&lt;/li&gt;&lt;li&gt;RAM 4 GB DDR4 ( up to 32GB (16GB x 2))&lt;/li&gt;&lt;li&gt;HDD 1 TB 5400 RPM (รองรับ M.2 SSD 2280)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>acer-aspire-f5-573g-53sj.jpg</t>
   </si>
   <si>
@@ -209,15 +206,9 @@
     <t>Acer Nitro AN515-51-57CE/T015 (Black)  </t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Intel Core i5-7300HQ Processor&lt;/li&gt;&lt;li&gt;NVIDIA GeForce GTX 1050 (4GB GDDR5)&lt;/li&gt;&lt;li&gt;8 GB DDR4&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>pavx360-convert-11-ab040tu-aqua-blue.jpg</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Intel® Pentium® Processor N3710 (1.6 GHz, up to 2.56 GHz with Intel® Turbo Boost Technology, 2 MB cache, 4 cores)&lt;/li&gt;&lt;li&gt;Windows 10 Home 64&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>PAVx360 Convert 11-ab040TU ( Aqua Blue )  </t>
   </si>
   <si>
@@ -330,6 +321,15 @@
   </si>
   <si>
     <t>subDistrict</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7200U (2.50 GHz, 3 MB L3 Cache, up to 3.10 GHz) NVIDIA GeForce GTX 950M (4GB GDDR5) RAM 4 GB DDR4 ( up to 32GB (16GB x 2)) HDD 1 TB 5400 RPM (รองรับ M.2 SSD 2280)</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7300HQ Processor NVIDIA GeForce GTX 1050 (4GB GDDR5) 8 GB DDR4</t>
+  </si>
+  <si>
+    <t>Intel® Pentium® Processor N3710 (1.6 GHz, up to 2.56 GHz with Intel® Turbo Boost Technology, 2 MB cache, 4 cores) Windows 10 Home 64</t>
   </si>
 </sst>
 </file>
@@ -761,16 +761,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -954,7 +954,7 @@
         <v>10100</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -1158,16 +1158,16 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1263,7 +1263,7 @@
         <v>10110</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,10 +1405,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="5">
         <v>18590</v>
@@ -1428,13 +1428,13 @@
     </row>
     <row r="3" spans="1:8" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5">
         <v>23700</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="4" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5">
         <v>11990</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5">
         <v>680</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5">
         <v>650</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="7" spans="1:8" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>500</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="8" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5">
         <v>3500</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="9" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5">
         <v>3399</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:J4"/>
     </sheetView>
   </sheetViews>
@@ -1706,25 +1706,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -971,15 +971,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -987,13 +987,16 @@
         <v>88</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1001,13 +1004,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1018,10 +1024,13 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>23700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1029,13 +1038,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>18950</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1046,10 +1058,13 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>18950</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1057,13 +1072,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>23700</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1071,9 +1089,12 @@
         <v>4</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>680</v>
       </c>
     </row>
@@ -1363,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1689,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J4"/>
+      <selection activeCell="C1" sqref="C1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,7 +1722,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1709,31 +1730,28 @@
         <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1741,11 +1759,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>25650</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
@@ -1756,16 +1774,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>10170</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1773,11 +1788,11 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>18950</v>
       </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
@@ -1788,16 +1803,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>10171</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1805,11 +1817,11 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
         <v>44010</v>
       </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -1820,12 +1832,9 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>10172</v>
       </c>
     </row>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -971,10 +971,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,6 +1096,40 @@
       </c>
       <c r="E7">
         <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>23700</v>
       </c>
     </row>
   </sheetData>
@@ -1710,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1838,6 +1872,35 @@
         <v>10172</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>25650</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>10171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
